--- a/SchedulingData/dynamic9/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_1.xlsx
@@ -462,159 +462,159 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>50.28</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.28</v>
       </c>
       <c r="D3" t="n">
-        <v>56.64</v>
+        <v>121.38</v>
       </c>
       <c r="E3" t="n">
-        <v>26.516</v>
+        <v>23.132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.64</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.16</v>
+        <v>92.3</v>
       </c>
       <c r="E4" t="n">
-        <v>21.784</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>182.86</v>
+        <v>48.3</v>
       </c>
       <c r="E5" t="n">
-        <v>17.644</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>121.38</v>
       </c>
       <c r="D6" t="n">
-        <v>29.88</v>
+        <v>195.02</v>
       </c>
       <c r="E6" t="n">
-        <v>27.712</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="D7" t="n">
-        <v>81.2</v>
+        <v>116.2</v>
       </c>
       <c r="E7" t="n">
-        <v>24.54</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>129.52</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>21.328</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>92.3</v>
       </c>
       <c r="D9" t="n">
-        <v>118.12</v>
+        <v>147.9</v>
       </c>
       <c r="E9" t="n">
-        <v>22.988</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,203 +622,203 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>84.52</v>
+        <v>115.12</v>
       </c>
       <c r="E10" t="n">
-        <v>26.208</v>
+        <v>21.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.52</v>
+        <v>195.02</v>
       </c>
       <c r="D11" t="n">
-        <v>146.1</v>
+        <v>254.2</v>
       </c>
       <c r="E11" t="n">
-        <v>22.16</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="D12" t="n">
-        <v>188.5</v>
+        <v>208.58</v>
       </c>
       <c r="E12" t="n">
-        <v>18.56</v>
+        <v>18.532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>182.86</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>219.18</v>
+        <v>91.2</v>
       </c>
       <c r="E13" t="n">
-        <v>14.652</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>129.52</v>
+        <v>116.2</v>
       </c>
       <c r="D14" t="n">
-        <v>174.62</v>
+        <v>155.48</v>
       </c>
       <c r="E14" t="n">
-        <v>17.948</v>
+        <v>19.912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.88</v>
+        <v>115.12</v>
       </c>
       <c r="D15" t="n">
-        <v>98.22</v>
+        <v>168.84</v>
       </c>
       <c r="E15" t="n">
-        <v>23.968</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>219.18</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>291.18</v>
+        <v>53.4</v>
       </c>
       <c r="E16" t="n">
-        <v>10.572</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>174.62</v>
+        <v>91.2</v>
       </c>
       <c r="D17" t="n">
-        <v>221.42</v>
+        <v>132.42</v>
       </c>
       <c r="E17" t="n">
-        <v>14.908</v>
+        <v>21.548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>98.22</v>
+        <v>53.4</v>
       </c>
       <c r="D18" t="n">
-        <v>165.62</v>
+        <v>121.32</v>
       </c>
       <c r="E18" t="n">
-        <v>20.328</v>
+        <v>22.648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.12</v>
+        <v>132.42</v>
       </c>
       <c r="D19" t="n">
-        <v>187.4</v>
+        <v>198.9</v>
       </c>
       <c r="E19" t="n">
-        <v>19.18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>165.62</v>
+        <v>208.58</v>
       </c>
       <c r="D20" t="n">
-        <v>238.32</v>
+        <v>255.82</v>
       </c>
       <c r="E20" t="n">
-        <v>16.188</v>
+        <v>14.948</v>
       </c>
     </row>
     <row r="21">
@@ -827,131 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>188.5</v>
+        <v>121.32</v>
       </c>
       <c r="D21" t="n">
-        <v>244.1</v>
+        <v>192.74</v>
       </c>
       <c r="E21" t="n">
-        <v>13.64</v>
+        <v>18.616</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>192.74</v>
       </c>
       <c r="D22" t="n">
-        <v>45.28</v>
+        <v>245.64</v>
       </c>
       <c r="E22" t="n">
-        <v>26.172</v>
+        <v>14.956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>291.18</v>
+        <v>255.82</v>
       </c>
       <c r="D23" t="n">
-        <v>347.7</v>
+        <v>298.04</v>
       </c>
       <c r="E23" t="n">
-        <v>6.54</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>244.1</v>
+        <v>168.84</v>
       </c>
       <c r="D24" t="n">
-        <v>282.68</v>
+        <v>201.2</v>
       </c>
       <c r="E24" t="n">
-        <v>10.912</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221.42</v>
+        <v>201.2</v>
       </c>
       <c r="D25" t="n">
-        <v>272.1</v>
+        <v>260.84</v>
       </c>
       <c r="E25" t="n">
-        <v>11.96</v>
+        <v>11.116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45.28</v>
+        <v>155.48</v>
       </c>
       <c r="D26" t="n">
-        <v>112.02</v>
+        <v>216.52</v>
       </c>
       <c r="E26" t="n">
-        <v>22.588</v>
+        <v>16.428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>187.4</v>
+        <v>254.2</v>
       </c>
       <c r="D27" t="n">
-        <v>232.24</v>
+        <v>324.98</v>
       </c>
       <c r="E27" t="n">
-        <v>15.836</v>
+        <v>12.612</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>238.32</v>
+        <v>198.9</v>
       </c>
       <c r="D28" t="n">
-        <v>286.32</v>
+        <v>239.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.028</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>232.24</v>
+        <v>216.52</v>
       </c>
       <c r="D29" t="n">
-        <v>280.24</v>
+        <v>278.62</v>
       </c>
       <c r="E29" t="n">
-        <v>12.176</v>
+        <v>12.348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>280.24</v>
+        <v>298.04</v>
       </c>
       <c r="D30" t="n">
-        <v>331.02</v>
+        <v>356.52</v>
       </c>
       <c r="E30" t="n">
-        <v>9.208</v>
+        <v>9.628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>112.02</v>
+        <v>239.1</v>
       </c>
       <c r="D31" t="n">
-        <v>179.28</v>
+        <v>311.5</v>
       </c>
       <c r="E31" t="n">
-        <v>19.992</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
